--- a/data/trans_camb/P1401-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1401-Habitat-trans_camb.xlsx
@@ -612,19 +612,19 @@
         <v>-0.1437410383379148</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8105990815232228</v>
+        <v>0.8105990815232225</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.7762956680178086</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8008019026441416</v>
+        <v>0.8008019026441413</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3165566371470809</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.8158972607233457</v>
+        <v>0.815897260723346</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.179177663879627</v>
+        <v>-1.130211177740752</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.328270830696917</v>
+        <v>-0.2442469321458171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.53330671909061</v>
+        <v>-0.7470090261058397</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4881224758715926</v>
+        <v>-0.5839555326356538</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.7140379929718265</v>
+        <v>-0.6873159795610662</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.04559016615859834</v>
+        <v>-0.03811591352625123</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8600082120531859</v>
+        <v>0.9300366173706412</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.059521102393663</v>
+        <v>1.940800333204169</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.450383724248738</v>
+        <v>2.472272711843</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.028330300768481</v>
+        <v>1.989139307644663</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.17668225846765</v>
+        <v>1.267471467399665</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.682175239517506</v>
+        <v>1.696775212441884</v>
       </c>
     </row>
     <row r="7">
@@ -690,19 +690,19 @@
         <v>-0.1387775601958105</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.7826085308101276</v>
+        <v>0.7826085308101273</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.4726791619827028</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.4876007787374428</v>
+        <v>0.4876007787374426</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2366498414303713</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6099444292616203</v>
+        <v>0.6099444292616206</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7820368255943894</v>
+        <v>-0.7484206868771874</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2872246195183653</v>
+        <v>-0.2408957058548105</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.349603845287361</v>
+        <v>-0.3901280909504221</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2443928265878948</v>
+        <v>-0.2444116317699446</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4089602603461766</v>
+        <v>-0.4081585888824185</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.03912408290154427</v>
+        <v>-0.05500335251926112</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.988164734705346</v>
+        <v>2.149214761855914</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.187193576797985</v>
+        <v>3.177910158258453</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.56915541496041</v>
+        <v>2.313987103013454</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.21074311144671</v>
+        <v>2.196721303647262</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.173576766959098</v>
+        <v>1.423859706974844</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.885121956637556</v>
+        <v>1.801999973406839</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>-0.1794406657383882</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.7898401322919996</v>
+        <v>0.7898401322920006</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9981527815251346</v>
+        <v>-0.8586990015638705</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1932164438922245</v>
+        <v>0.3862249114073845</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.437053045314537</v>
+        <v>-1.565994797656793</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8438864404095578</v>
+        <v>-0.8712625410134071</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.915743019403675</v>
+        <v>-0.8939885430676188</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05349096113663089</v>
+        <v>0.01418480335239205</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7425963988076063</v>
+        <v>0.7487264281573915</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.292867882737552</v>
+        <v>2.340259372474368</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9179065326650806</v>
+        <v>0.7409999629316663</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.327856312311452</v>
+        <v>1.382188467706866</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4994784139901574</v>
+        <v>0.479733835854961</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.602386967709569</v>
+        <v>1.55554876282363</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>-0.1350474020995744</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5944352552477153</v>
+        <v>0.5944352552477161</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8054360799442212</v>
+        <v>-0.7232773572782359</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02689228160203656</v>
+        <v>0.1259831443450078</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5986395842985308</v>
+        <v>-0.6260329796459394</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3293911387182455</v>
+        <v>-0.3261177732515657</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5226547924114411</v>
+        <v>-0.5237246897593272</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006182324492067674</v>
+        <v>0.006786153715737102</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.285089791313855</v>
+        <v>2.289871465340664</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6.661342116862326</v>
+        <v>6.929554059824014</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7555490150139731</v>
+        <v>0.6243278493163604</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.063613139422061</v>
+        <v>1.100473524373311</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5700350707381808</v>
+        <v>0.5121834787455292</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.708619026841254</v>
+        <v>1.691081602120803</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.18366547759995</v>
+        <v>-1.231011478193622</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.08520014590308518</v>
+        <v>-0.08154311842067154</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.882798509832582</v>
+        <v>-1.838227267905207</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.633364678055491</v>
+        <v>-1.636357596400812</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.168726294075974</v>
+        <v>-1.142225638380016</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.4827875955662022</v>
+        <v>-0.4553093021681723</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4811834744926358</v>
+        <v>0.535048875489168</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.199389025394618</v>
+        <v>2.128523129496601</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7772019713613255</v>
+        <v>0.9162846486286097</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9256539836067456</v>
+        <v>0.9054133897807364</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4270238279450758</v>
+        <v>0.3766166946238083</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.197364886006133</v>
+        <v>1.191808233725452</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8563049823381692</v>
+        <v>-0.8603582311371678</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1237636773547796</v>
+        <v>-0.1486378587847804</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7254293702779561</v>
+        <v>-0.7300388271911165</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5955359793935628</v>
+        <v>-0.6131988583074479</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6502857002277073</v>
+        <v>-0.6612301146902861</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2797581327561404</v>
+        <v>-0.2755404323115174</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.236655779989904</v>
+        <v>1.842361637027445</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.631008021573424</v>
+        <v>5.393644271649779</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9125017901363907</v>
+        <v>0.944400248823175</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.142546590205853</v>
+        <v>1.016323073047233</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5063668605198554</v>
+        <v>0.4847349138776396</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.404030649956098</v>
+        <v>1.38456329641841</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>-0.6280033964855436</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.719024818647216</v>
+        <v>0.7190248186472163</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.1775528759001548</v>
@@ -1104,7 +1104,7 @@
         <v>-0.2030532996877704</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.4471873448031002</v>
+        <v>0.447187344803101</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.779091086486013</v>
+        <v>-1.92710109964785</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4325855627733947</v>
+        <v>-0.8294217351381838</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.339728574967841</v>
+        <v>-1.309893704973946</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.152233693108744</v>
+        <v>-1.37016685955413</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.115118925380965</v>
+        <v>-1.166032124204381</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.5642456798466076</v>
+        <v>-0.4688161460402447</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4383427001322575</v>
+        <v>0.3929077395509944</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.072477402922972</v>
+        <v>1.957923965748682</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.760982736626841</v>
+        <v>1.579830141374561</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.41214593397701</v>
+        <v>1.368926632495145</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9121959434654532</v>
+        <v>0.8054875574685391</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.272657308748238</v>
+        <v>1.32040872067027</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>-0.3443299009968632</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.3942363146514967</v>
+        <v>0.3942363146514969</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.06855438242427134</v>
@@ -1182,7 +1182,7 @@
         <v>-0.09118397462657424</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2008158427592738</v>
+        <v>0.2008158427592742</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7068059209604158</v>
+        <v>-0.715232942225599</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1998880805421187</v>
+        <v>-0.3493672283617212</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3970548173974709</v>
+        <v>-0.4087018049818624</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3325973251760685</v>
+        <v>-0.3857915427103908</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4204238458643925</v>
+        <v>-0.4257034909814212</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2084334164009393</v>
+        <v>-0.1681856414634823</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5289508382478854</v>
+        <v>0.4047931352369811</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.835678980036506</v>
+        <v>1.577022084583842</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9423232142911613</v>
+        <v>0.8547530859069542</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7626008332591477</v>
+        <v>0.770837395389656</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5311424308542138</v>
+        <v>0.476806781886968</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.692651890759307</v>
+        <v>0.761781879403244</v>
       </c>
     </row>
     <row r="28">
@@ -1252,7 +1252,7 @@
         <v>-0.2669243748262082</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.9707661894515114</v>
+        <v>0.9707661894515117</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-0.007173207624061595</v>
@@ -1264,7 +1264,7 @@
         <v>-0.1328143749495903</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.6096894318136814</v>
+        <v>0.6096894318136811</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.7605871940061072</v>
+        <v>-0.8186783142708777</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3640442662114592</v>
+        <v>0.393127129731125</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6986357024551428</v>
+        <v>-0.6815336993135089</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.3986313238513639</v>
+        <v>-0.3907518063944755</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.5474829819189899</v>
+        <v>-0.5873116396547324</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1640388690930513</v>
+        <v>0.2132544767924798</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1846671001933828</v>
+        <v>0.2188619129206008</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.514220635158013</v>
+        <v>1.553091776497125</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7437555015562839</v>
+        <v>0.6777156203444984</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.8499204325761111</v>
+        <v>0.9005113317183766</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2983159492072279</v>
+        <v>0.3031115298596719</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.013785268364777</v>
+        <v>1.040206612415953</v>
       </c>
     </row>
     <row r="31">
@@ -1330,7 +1330,7 @@
         <v>-0.2335472986445458</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.8493784852337851</v>
+        <v>0.8493784852337855</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.003560796993306976</v>
@@ -1342,7 +1342,7 @@
         <v>-0.08370406074618682</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3842466695055431</v>
+        <v>0.3842466695055429</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5295622086792395</v>
+        <v>-0.5632454469865869</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2371477737236752</v>
+        <v>0.2913103875661183</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2928575102643864</v>
+        <v>-0.2926377702702572</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1612471550964952</v>
+        <v>-0.1644035273516512</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3055668901027591</v>
+        <v>-0.3262893173678112</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09059695524815913</v>
+        <v>0.1132815909750976</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2133567012649115</v>
+        <v>0.2748026518088352</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.765547234309042</v>
+        <v>1.84102522260434</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4543813553214511</v>
+        <v>0.4213495800017489</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5215140940099294</v>
+        <v>0.529024545638288</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.22469733354682</v>
+        <v>0.226163762618543</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7537688837112264</v>
+        <v>0.773663716805271</v>
       </c>
     </row>
     <row r="34">
